--- a/biology/Écologie/Montagne_d'Eclusier-Vaux/Montagne_d'Eclusier-Vaux.xlsx
+++ b/biology/Écologie/Montagne_d'Eclusier-Vaux/Montagne_d'Eclusier-Vaux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Montagne_d%27Eclusier-Vaux</t>
+          <t>Montagne_d'Eclusier-Vaux</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La  Montagne de Vaux est un site « naturel » remarquable situé sur le territoire de la commune d’Eclusier-Vaux  dans le département de la Somme. C'est un site Ramsar inclus dans les Marais et tourbières des vallées de la Somme et de l'Avre.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Montagne_d%27Eclusier-Vaux</t>
+          <t>Montagne_d'Eclusier-Vaux</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans la  vallée de la Somme, au cœur des marais et des étangs, l’homme a développé une activité traditionnelle
 de chasse, de pisciculture, de tourbage et de vannerie.
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Montagne_d%27Eclusier-Vaux</t>
+          <t>Montagne_d'Eclusier-Vaux</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Le Belvédère de Vaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le belvédère de Vaux est l'un des sites les plus pittoresques de l'est du département de la Somme. C’est de l'oratoire Notre-Dame de Vaux que l’on découvre le mieux le versant de la Montagne de Vaux. 
 Le Belvédère domine de son promontoire la haute vallée de la Somme et offre un panorama remarquable sur les étangs et les marais. Des îlots en cours de restauration sont tapissés de roselières au pied du larris.
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Montagne_d%27Eclusier-Vaux</t>
+          <t>Montagne_d'Eclusier-Vaux</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,12 +596,14 @@
           <t>Le larris</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Un chemin partant du belvédère permet de pénétrer dans le larris ou pelouse calcicole.
 Les versants, plus abrupts, ont toujours été réservés au pâturage. Le larri s’est ainsi formé. Il offre un paysage caractéristique avec la craie affleurante et sa faune et flore d'appartenance méditerranéenne.
 Depuis 1997, le pâturage des chèvres permet l’entretien du larris qui sans cela deviendrait un espace totalement boisé.
-L’espace est géré par le Conservatoire d'espaces naturels de Picardie depuis 1995[2].
+L’espace est géré par le Conservatoire d'espaces naturels de Picardie depuis 1995.
 </t>
         </is>
       </c>
@@ -596,7 +614,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Montagne_d%27Eclusier-Vaux</t>
+          <t>Montagne_d'Eclusier-Vaux</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -616,8 +634,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Flore
-crête de coq,
+          <t>Flore</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>crête de coq,
 digitale jaune,
 hippocrépide en ombelle (Hippocrepis comosa L.)
 origan,
@@ -626,9 +649,43 @@
 rhinanthe,
 serpolet,
 thym,
-violette…
-Faune
-faune spécifique des lieux humides:
+violette…</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Montagne_d'Eclusier-Vaux</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Montagne_d%27Eclusier-Vaux</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Faune</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>faune spécifique des lieux humides:
 papillons,
 Le machaon est l’un des plus grands papillons diurnes de France.
 criquets
